--- a/dados_processados/hemoprod_rj.xlsx
+++ b/dados_processados/hemoprod_rj.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JI4"/>
+  <dimension ref="A1:JJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,1286 +511,1299 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>estado</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>razao_social_nome_fantasia</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>razao_social_nome_fantasia_outros</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>cnpj</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>tipo_estabelecimento</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>natureza_estabelecimento</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>dados_informados_referem_se</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>rede_estabelecimento</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>cnes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>endereco</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_espontanea_aptos</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_espontanea_inaptos</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_reposicao_aptos</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_reposicao_inaptos</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_autologa_aptos</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_autologa_inaptos</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>total_doador_primeira_vez_aptos</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>total_doador_primeira_vez_inaptos</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>total_doador_repeticao_aptos</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>total_doador_repeticao_inaptos</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>total_doador_esporadico_aptos</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>total_doador_esporadico_inaptos</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>total_doador_masculino_aptos</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>total_doador_masculino_inaptos</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>total_doador_feminino_aptos</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>total_doador_feminino_inaptos</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>total_doador_menor_de_18_anos_aptos</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>total_doador_menor_de_18_anos_inaptos</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>total_doador_18_ate_29_anos_aptos</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>total_doador_18_ate_29_anos_inaptos</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>total_doador_acima_de_29_anos_aptos</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>total_doador_acima_de_29_anos_inaptos</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_anemia_masculino</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_anemia_feminino</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_anemia_total</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipertensao_masculino</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipertensao_feminino</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipertensao_total</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipotensao_masculino</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipotensao_feminino</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipotensao_total</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_alcoolismo_masculino</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_alcoolismo_feminino</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_alcoolismo_total</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_comportamento_risco_dst_masculino</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_comportamento_risco_dst_feminino</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_comportamento_risco_dst_total</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_uso_drogas_masculino</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_uso_drogas_feminino</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_uso_drogas_total</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hepatite_masculino</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hepatite_feminino</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hepatite_total</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_doenca_chagas_masculino</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_doenca_chagas_feminino</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_doenca_chagas_total</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_malaria_masculino</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_malaria_feminino</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_malaria_total</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_outras_masculino</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_outras_feminino</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_outras_total</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>coleta_total_candidatos_desistentes</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>total_interrupcoes_coleta_dificuldade_puncao_venosa</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>total_interrupcoes_coleta_reacao_vagal</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>total_interrupcoes_coleta_outros_motivos</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>total_coletas_sangue_total</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>total_coletas_aferese</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>hemoprod_1_observacoes</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_doenca_chagas_amostras_testadas</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_doenca_chagas_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_amostras_testadas</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_sifilis_amostras_testadas</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>`exames_triagem_doenca_sifilis_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_hbs_ag_amostras_testadas</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_hbs_ag_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_anti_hbc_amostras_testadas</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_anti_hbc_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_c_amostras_testadas</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_c_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_htlv_i_ii_amostras_testadas</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_htlv_i_ii_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_malaria_amostras_testadas</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_malaria_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hbv_teste_nat_amostras_testadas</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hbv_teste_nat_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hcv_teste_nat_amostras_testadas</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hcv_teste_nat_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_teste_nat_amostras_testadas</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_teste_nat_amostras_reagentes</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_positivo_doador</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_positivo_receptor</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_positivo_doador</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_positivo_receptor</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_positivo_doador</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_positivo_receptor</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_positivo_doador</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_positivo_receptor</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_negativo_doador</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_negativo_receptor</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_negativo_doador</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_negativo_receptor</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_negativo_doador</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_negativo_receptor</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_negativo_doador</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_negativo_receptor</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_dfraco_doador</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_dfraco_receptor</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_pesquisa_anticorpo_irregular_positivo_doador</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_pesquisa_anticorpo_irregular_positivo_receptor</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_fenotipagem_doador</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_fenotipagem_receptor</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_combs_direto_doador</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_combs_direto_receptor</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>outros_tipos_pesquisa_pesquisa_hbs_doador</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>inaptidao_triagem_laboratorial_total_bolsas_testadas</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>inaptidao_triagem_laboratorial_total_bolsas_reagentes_1_ou_mais_marcadores</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>descarte_bolsas_total_bolsas_descartadas_auto_exclusao</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>hemoprod_2_observacoes</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_sangue_total_produzidas</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_sangue_total_recebidas</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_sangue_total_devolvidas</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_fresco_congelado_produzidas</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_fresco_congelado_recebidas</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_fresco_congelado_devolvidas</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_comum_produzidas</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_comum_recebidas</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_comum_devolvidas</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_produzidas</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_recebidas</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_devolvidas</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_produzidas</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_recebidas</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_devolvidas</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_produzidas</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_recebidas</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_devolvidas</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_aferese_produzidas</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_aferese_recebidas</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_aferese_devolvidas</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_leucocitos_produzidas</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_leucocitos_recebidas</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_leucocitos_devolvidas</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_crioprecipitado_produzidas</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_crioprecipitado_recebidas</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_crioprecipitado_devolvidas</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_produzidas</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_recebidas</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_devolvidas</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>perdas_sangue_total_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>perdas_sangue_total_validade</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>perdas_sangue_total_outros_motivos</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_fresco_congelado_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_fresco_congelado_validade</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_fresco_congelado_outros_motivos</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_comum_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_comum_validade</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_comum_outros_motivos</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_validade</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_outros_motivos</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_sem_buffy_coat_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_sem_buffy_coat_validade</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_sem_buffy_coat_outros_motivos</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_validade</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_outros_motivos</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_de_aferese_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_de_aferese_validade</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_de_aferese_outros_motivos</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_leucocitos_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_leucocitos_validade</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_leucocitos_outros_motivos</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>perdas_crioprecipitado_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>perdas_crioprecipitado_validade</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>perdas_crioprecipitado_outros_motivos</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_sem_buffy_coat_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_sem_buffy_coat_validade</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_sem_buffy_coat_outros_motivos</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_sangue_total_ambulatorial</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_sangue_total_hospitalar</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_sangue_total_total</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_fresco_congelado_ambulatorial</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_fresco_congelado_hospitalar</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_fresco_congelado_total</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_comum_ambulatorial</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_comum_hospitalar</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_comum_total</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_ambulatorial</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_hospitalar</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_total</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_sem_buffy_coat_ambulatorial</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_sem_buffy_coat_hospitalar</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_ambulatorial</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_hospitalar</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_total</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_de_aferese_ambulatorial</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_de_aferese_hospitalar</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_de_aferese_total</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_leucocitos_ambulatorial</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_leucocitos_hospitalar</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_leucocitos_total</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_crioprecipitado_ambulatorial</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_crioprecipitado_hospitalar</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_crioprecipitado_total</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_ambulatorial</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_hospitalar</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_sangue_total_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_sangue_total_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_sangue_total_total</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_fresco_congelado_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_fresco_congelado_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_fresco_congelado_total</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_comum_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_comum_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_comum_total</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_total</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_sem_exame_pre_transfusi</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_com_exame_pre_transfusi</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_total</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_total</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_leucocitos_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_leucocitos_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_leucocitos_total</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_crioprecipitado_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_crioprecipitado_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_crioprecipitado_total</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_lavagem</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_irradiacao</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_filtracao_em_concentrado_de_plaquetas</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_filtracao_em_concentrado_de_hemacias</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_fracionamento_pediatrico</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_reacao_febril_nao_hemolitica</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_reacao_hemolitica</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_reacao_alergica</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_choque_bacteriano</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_alteracoes_metabolicas</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_sobrecarga_volemica</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_outras_reacoes</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>envio_plasma_producao_hemoderivados_plasma_fresco_congelado</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>envio_plasma_producao_hemoderivados_plasma_comum</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>hemoprod_3_observacoes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>2023</v>
@@ -1800,124 +1813,138 @@
           <t>Consolidado</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Consolidado, Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Unidade de Coleta e Transfusão</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Público</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Rede de serviços</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>907</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>403</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>791</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>324</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1276</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>622</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>422</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>105</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>962</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>347</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>736</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>380</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
         <v>594</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>256</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>1104</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>471</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>10</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>79</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>89</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>23</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>12</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>35</v>
       </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1926,34 +1953,34 @@
         <v>0</v>
       </c>
       <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
         <v>71</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>19</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>90</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BK2" t="n">
         <v>5</v>
       </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
       <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
         <v>5</v>
       </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
       <c r="BN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
         <v>1</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1962,220 +1989,232 @@
         <v>0</v>
       </c>
       <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
         <v>1</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>3</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>4</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2" t="n">
         <v>237</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>249</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2" t="n">
         <v>486</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>10</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>35</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>1</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>56</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>1596</v>
       </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="n">
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="n">
         <v>1596</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>1</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CI2" t="n">
         <v>1596</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CJ2" t="n">
         <v>2</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CK2" t="n">
         <v>1596</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>51</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>1596</v>
       </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
       <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
         <v>1596</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>16</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>1596</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>4</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>1596</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>3</v>
       </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
       <c r="CU2" t="n">
         <v>0</v>
       </c>
-      <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="inlineStr"/>
-      <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="inlineStr"/>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="inlineStr"/>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
       <c r="DB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="n">
         <v>434</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>1390</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>162</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>498</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DG2" t="n">
         <v>46</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DH2" t="n">
         <v>143</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DI2" t="n">
         <v>738</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>1963</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>54</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>178</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>11</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>46</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>5</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>10</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>146</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>215</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>216</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>449</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>1596</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>4234</v>
       </c>
-      <c r="DV2" t="n">
-        <v>0</v>
-      </c>
       <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="n">
         <v>41</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>1</v>
       </c>
-      <c r="DY2" t="n">
-        <v>0</v>
-      </c>
       <c r="DZ2" t="n">
-        <v>1596</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
         <v>1596</v>
       </c>
       <c r="EB2" t="n">
+        <v>1596</v>
+      </c>
+      <c r="EC2" t="n">
         <v>73</v>
       </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="n">
+      <c r="ED2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="n">
         <v>9</v>
       </c>
-      <c r="EF2" t="n">
-        <v>0</v>
-      </c>
       <c r="EG2" t="n">
         <v>0</v>
       </c>
       <c r="EH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="n">
         <v>20</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>162</v>
       </c>
-      <c r="EJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="EK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" t="n">
         <v>1567</v>
       </c>
-      <c r="EL2" t="n">
-        <v>0</v>
-      </c>
       <c r="EM2" t="n">
         <v>0</v>
       </c>
       <c r="EN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="n">
         <v>1587</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>179</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>1</v>
       </c>
-      <c r="EQ2" t="n">
-        <v>0</v>
-      </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
@@ -2183,17 +2222,23 @@
         <v>0</v>
       </c>
       <c r="ET2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" t="n">
         <v>1047</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>87</v>
       </c>
-      <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="inlineStr"/>
-      <c r="EX2" t="inlineStr"/>
-      <c r="EY2" t="inlineStr"/>
+      <c r="EW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0</v>
+      </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
@@ -2207,11 +2252,11 @@
         <v>0</v>
       </c>
       <c r="FD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="n">
         <v>23</v>
       </c>
-      <c r="FE2" t="n">
-        <v>0</v>
-      </c>
       <c r="FF2" t="n">
         <v>0</v>
       </c>
@@ -2228,38 +2273,38 @@
         <v>0</v>
       </c>
       <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
         <v>9</v>
       </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
       <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
         <v>19</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>27</v>
       </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
         <v>1567</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>2</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>30</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FU2" t="n">
         <v>84</v>
       </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
       <c r="FV2" t="n">
         <v>0</v>
       </c>
@@ -2267,17 +2312,23 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" t="n">
         <v>1</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="FZ2" t="n">
         <v>106</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
         <v>295</v>
       </c>
-      <c r="GA2" t="inlineStr"/>
-      <c r="GB2" t="inlineStr"/>
-      <c r="GC2" t="inlineStr"/>
+      <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
       <c r="GD2" t="n">
         <v>0</v>
       </c>
@@ -2291,14 +2342,14 @@
         <v>0</v>
       </c>
       <c r="GH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" t="n">
         <v>9</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GJ2" t="n">
         <v>3</v>
       </c>
-      <c r="GJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="GK2" t="n">
         <v>0</v>
       </c>
@@ -2318,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="GQ2" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="GR2" t="n">
         <v>132</v>
       </c>
       <c r="GS2" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="GT2" t="n">
         <v>0</v>
@@ -2336,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="GW2" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="GX2" t="n">
         <v>1540</v>
       </c>
       <c r="GY2" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="GZ2" t="n">
         <v>0</v>
@@ -2354,14 +2405,20 @@
         <v>0</v>
       </c>
       <c r="HC2" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="HD2" t="n">
         <v>154</v>
       </c>
-      <c r="HE2" t="inlineStr"/>
-      <c r="HF2" t="inlineStr"/>
-      <c r="HG2" t="inlineStr"/>
+      <c r="HE2" t="n">
+        <v>154</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0</v>
+      </c>
       <c r="HH2" t="n">
         <v>0</v>
       </c>
@@ -2375,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="HL2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="HM2" t="n">
         <v>13</v>
       </c>
       <c r="HN2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="HO2" t="n">
         <v>0</v>
@@ -2417,17 +2474,17 @@
         <v>0</v>
       </c>
       <c r="HZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA2" t="n">
         <v>82</v>
       </c>
-      <c r="IA2" t="n">
-        <v>0</v>
-      </c>
       <c r="IB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC2" t="n">
         <v>82</v>
       </c>
-      <c r="IC2" t="n">
-        <v>0</v>
-      </c>
       <c r="ID2" t="n">
         <v>0</v>
       </c>
@@ -2435,17 +2492,23 @@
         <v>0</v>
       </c>
       <c r="IF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG2" t="n">
         <v>578</v>
       </c>
-      <c r="IG2" t="n">
-        <v>0</v>
-      </c>
       <c r="IH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="II2" t="n">
         <v>578</v>
       </c>
-      <c r="II2" t="inlineStr"/>
-      <c r="IJ2" t="inlineStr"/>
-      <c r="IK2" t="inlineStr"/>
+      <c r="IJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0</v>
+      </c>
       <c r="IL2" t="n">
         <v>0</v>
       </c>
@@ -2489,17 +2552,17 @@
         <v>0</v>
       </c>
       <c r="IZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA2" t="n">
         <v>7</v>
       </c>
-      <c r="JA2" t="n">
-        <v>0</v>
-      </c>
       <c r="JB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC2" t="n">
         <v>6</v>
       </c>
-      <c r="JC2" t="n">
-        <v>0</v>
-      </c>
       <c r="JD2" t="n">
         <v>0</v>
       </c>
@@ -2507,27 +2570,38 @@
         <v>0</v>
       </c>
       <c r="JF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG2" t="n">
         <v>7</v>
       </c>
-      <c r="JG2" t="n">
-        <v>0</v>
-      </c>
       <c r="JH2" t="n">
         <v>0</v>
       </c>
-      <c r="JI2" t="inlineStr"/>
+      <c r="JI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>2022</v>
@@ -2537,160 +2611,174 @@
           <t>Consolidado</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Consolidado, Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Unidade de Coleta e Transfusão</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Público</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Rede de serviços</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>771</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>293</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>920</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>401</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1210</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>577</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>481</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>117</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>1088</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>327</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>603</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>367</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>506</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>197</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>1185</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>497</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>20</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>73</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>93</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>26</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>15</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>41</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>6</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>15</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>21</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>1</v>
       </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
       <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
         <v>1</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>46</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>17</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>63</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>10</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3" t="n">
         <v>1</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BM3" t="n">
         <v>11</v>
       </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
       <c r="BN3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>2</v>
       </c>
       <c r="BP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ3" t="n">
         <v>0</v>
@@ -2699,187 +2787,199 @@
         <v>0</v>
       </c>
       <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
         <v>9</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3" t="n">
         <v>4</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>13</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>209</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BX3" t="n">
         <v>240</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BY3" t="n">
         <v>449</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>5</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>28</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3" t="n">
         <v>2</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3" t="n">
         <v>20</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CD3" t="n">
         <v>1636</v>
       </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="n">
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="n">
         <v>1636</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>3</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CI3" t="n">
         <v>1636</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CJ3" t="n">
         <v>5</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CK3" t="n">
         <v>1636</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CL3" t="n">
         <v>34</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>1636</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CN3" t="n">
         <v>1</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CO3" t="n">
         <v>1636</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CP3" t="n">
         <v>15</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
         <v>1636</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CR3" t="n">
         <v>4</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CS3" t="n">
         <v>1636</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CT3" t="n">
         <v>3</v>
       </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
       <c r="CU3" t="n">
         <v>0</v>
       </c>
-      <c r="CV3" t="inlineStr"/>
-      <c r="CW3" t="inlineStr"/>
-      <c r="CX3" t="inlineStr"/>
-      <c r="CY3" t="inlineStr"/>
-      <c r="CZ3" t="inlineStr"/>
-      <c r="DA3" t="inlineStr"/>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
       <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
         <v>489</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DD3" t="n">
         <v>1509</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DE3" t="n">
         <v>160</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DF3" t="n">
         <v>494</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DG3" t="n">
         <v>48</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DH3" t="n">
         <v>149</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DI3" t="n">
         <v>715</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DJ3" t="n">
         <v>1841</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>60</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>100</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>13</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>38</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>3</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>10</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>148</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>151</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>224</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>299</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>1636</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>4075</v>
       </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
       <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
         <v>44</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>3</v>
       </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
       <c r="DZ3" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
         <v>1636</v>
       </c>
       <c r="EB3" t="n">
+        <v>1636</v>
+      </c>
+      <c r="EC3" t="n">
         <v>58</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>2</v>
       </c>
-      <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="n">
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="n">
         <v>31</v>
       </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
@@ -2887,32 +2987,32 @@
         <v>0</v>
       </c>
       <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
         <v>102</v>
       </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
         <v>1607</v>
       </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
       <c r="EM3" t="n">
         <v>0</v>
       </c>
       <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
         <v>1607</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>170</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
@@ -2920,17 +3020,23 @@
         <v>0</v>
       </c>
       <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
         <v>41</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>156</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>21</v>
       </c>
-      <c r="EW3" t="inlineStr"/>
-      <c r="EX3" t="inlineStr"/>
-      <c r="EY3" t="inlineStr"/>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
@@ -2944,11 +3050,11 @@
         <v>0</v>
       </c>
       <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
         <v>44</v>
       </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
       <c r="FF3" t="n">
         <v>0</v>
       </c>
@@ -2965,38 +3071,38 @@
         <v>0</v>
       </c>
       <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>31</v>
       </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
       <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
         <v>15</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FO3" t="n">
         <v>2</v>
       </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
         <v>1607</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FS3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FT3" t="n">
         <v>19</v>
       </c>
-      <c r="FT3" t="n">
+      <c r="FU3" t="n">
         <v>114</v>
       </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
       <c r="FV3" t="n">
         <v>0</v>
       </c>
@@ -3007,14 +3113,20 @@
         <v>0</v>
       </c>
       <c r="FY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" t="n">
         <v>37</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GA3" t="n">
         <v>35</v>
       </c>
-      <c r="GA3" t="inlineStr"/>
-      <c r="GB3" t="inlineStr"/>
-      <c r="GC3" t="inlineStr"/>
+      <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
       <c r="GD3" t="n">
         <v>0</v>
       </c>
@@ -3028,11 +3140,11 @@
         <v>0</v>
       </c>
       <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
         <v>8</v>
       </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
       <c r="GJ3" t="n">
         <v>0</v>
       </c>
@@ -3055,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="GQ3" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="GR3" t="n">
         <v>79</v>
       </c>
       <c r="GS3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="GT3" t="n">
         <v>0</v>
@@ -3073,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="GW3" t="n">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="GX3" t="n">
         <v>1512</v>
       </c>
       <c r="GY3" t="n">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="GZ3" t="n">
         <v>0</v>
@@ -3091,14 +3203,20 @@
         <v>0</v>
       </c>
       <c r="HC3" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="HD3" t="n">
         <v>99</v>
       </c>
-      <c r="HE3" t="inlineStr"/>
-      <c r="HF3" t="inlineStr"/>
-      <c r="HG3" t="inlineStr"/>
+      <c r="HE3" t="n">
+        <v>99</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0</v>
+      </c>
       <c r="HH3" t="n">
         <v>0</v>
       </c>
@@ -3112,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="HL3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="HM3" t="n">
         <v>18</v>
       </c>
       <c r="HN3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
@@ -3154,17 +3272,17 @@
         <v>0</v>
       </c>
       <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
         <v>134</v>
       </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
       <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
         <v>134</v>
       </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
       <c r="ID3" t="n">
         <v>0</v>
       </c>
@@ -3172,17 +3290,23 @@
         <v>0</v>
       </c>
       <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
         <v>5</v>
       </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
       <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
         <v>5</v>
       </c>
-      <c r="II3" t="inlineStr"/>
-      <c r="IJ3" t="inlineStr"/>
-      <c r="IK3" t="inlineStr"/>
+      <c r="IJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0</v>
+      </c>
       <c r="IL3" t="n">
         <v>0</v>
       </c>
@@ -3226,17 +3350,17 @@
         <v>0</v>
       </c>
       <c r="IZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA3" t="n">
         <v>5</v>
       </c>
-      <c r="JA3" t="n">
-        <v>0</v>
-      </c>
       <c r="JB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC3" t="n">
         <v>5</v>
       </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
       <c r="JD3" t="n">
         <v>0</v>
       </c>
@@ -3244,27 +3368,38 @@
         <v>0</v>
       </c>
       <c r="JF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG3" t="n">
         <v>3</v>
       </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
       <c r="JH3" t="n">
         <v>0</v>
       </c>
-      <c r="JI3" t="inlineStr"/>
+      <c r="JI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>2024</v>
@@ -3274,170 +3409,184 @@
           <t>Consolidado</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Consolidado, Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+          <t>Consolidado</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Unidade de Coleta e Transfusão</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Público</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Rede de serviços</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>842</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>345</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>908</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>327</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1388</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>577</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>362</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>95</v>
       </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>964</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>299</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>786</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>373</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
         <v>559</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>185</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>1191</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>487</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>9</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>62</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>71</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>26</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>16</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>42</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>3</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>8</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>11</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>2</v>
       </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
       <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
         <v>2</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>34</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>14</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>48</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>2</v>
       </c>
       <c r="BK4" t="n">
         <v>2</v>
       </c>
       <c r="BL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM4" t="n">
         <v>4</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>1</v>
       </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
       <c r="BO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
         <v>1</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
         <v>1</v>
       </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
       <c r="BT4" t="n">
         <v>0</v>
       </c>
@@ -3445,208 +3594,220 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
         <v>221</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BX4" t="n">
         <v>271</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BY4" t="n">
         <v>492</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>3</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>36</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4" t="n">
         <v>1</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4" t="n">
         <v>41</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4" t="n">
         <v>1669</v>
       </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="inlineStr"/>
-      <c r="CF4" t="n">
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="n">
         <v>1669</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>1</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CI4" t="n">
         <v>1669</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CJ4" t="n">
         <v>3</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CK4" t="n">
         <v>1669</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CL4" t="n">
         <v>55</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CM4" t="n">
         <v>1669</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CN4" t="n">
         <v>2</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CO4" t="n">
         <v>1669</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CP4" t="n">
         <v>22</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CQ4" t="n">
         <v>1669</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CR4" t="n">
         <v>4</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CS4" t="n">
         <v>1669</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CT4" t="n">
         <v>1</v>
       </c>
-      <c r="CT4" t="n">
-        <v>0</v>
-      </c>
       <c r="CU4" t="n">
         <v>0</v>
       </c>
-      <c r="CV4" t="inlineStr"/>
-      <c r="CW4" t="inlineStr"/>
-      <c r="CX4" t="inlineStr"/>
-      <c r="CY4" t="inlineStr"/>
-      <c r="CZ4" t="inlineStr"/>
-      <c r="DA4" t="inlineStr"/>
+      <c r="CV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0</v>
+      </c>
       <c r="DB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="n">
         <v>463</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DD4" t="n">
         <v>1600</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DE4" t="n">
         <v>191</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DF4" t="n">
         <v>480</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DG4" t="n">
         <v>54</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DH4" t="n">
         <v>144</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DI4" t="n">
         <v>761</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>1994</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>56</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>177</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>15</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>34</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>3</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>10</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>126</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>188</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>200</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>409</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>1668</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>4293</v>
       </c>
-      <c r="DV4" t="n">
-        <v>0</v>
-      </c>
       <c r="DW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="n">
         <v>42</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>1</v>
       </c>
-      <c r="DY4" t="n">
-        <v>0</v>
-      </c>
       <c r="DZ4" t="n">
-        <v>1669</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
         <v>1669</v>
       </c>
       <c r="EB4" t="n">
+        <v>1669</v>
+      </c>
+      <c r="EC4" t="n">
         <v>83</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>2</v>
       </c>
-      <c r="ED4" t="inlineStr"/>
-      <c r="EE4" t="n">
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="n">
         <v>2</v>
       </c>
-      <c r="EF4" t="n">
-        <v>0</v>
-      </c>
       <c r="EG4" t="n">
         <v>0</v>
       </c>
       <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
         <v>85</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>172</v>
       </c>
-      <c r="EJ4" t="n">
-        <v>0</v>
-      </c>
       <c r="EK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" t="n">
         <v>1582</v>
       </c>
-      <c r="EL4" t="n">
-        <v>0</v>
-      </c>
       <c r="EM4" t="n">
         <v>0</v>
       </c>
       <c r="EN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="n">
         <v>1667</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>181</v>
       </c>
-      <c r="EP4" t="n">
-        <v>0</v>
-      </c>
       <c r="EQ4" t="n">
         <v>0</v>
       </c>
@@ -3657,17 +3818,23 @@
         <v>0</v>
       </c>
       <c r="ET4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="n">
         <v>1156</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>87</v>
       </c>
-      <c r="EV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" t="inlineStr"/>
-      <c r="EX4" t="inlineStr"/>
-      <c r="EY4" t="inlineStr"/>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0</v>
+      </c>
       <c r="EZ4" t="n">
         <v>0</v>
       </c>
@@ -3681,11 +3848,11 @@
         <v>0</v>
       </c>
       <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
         <v>65</v>
       </c>
-      <c r="FE4" t="n">
-        <v>0</v>
-      </c>
       <c r="FF4" t="n">
         <v>0</v>
       </c>
@@ -3702,38 +3869,38 @@
         <v>0</v>
       </c>
       <c r="FK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" t="n">
         <v>2</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FM4" t="n">
         <v>3</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FN4" t="n">
         <v>49</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FO4" t="n">
         <v>97</v>
       </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
         <v>1582</v>
       </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
       <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
         <v>13</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FU4" t="n">
         <v>86</v>
       </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
       <c r="FV4" t="n">
         <v>0</v>
       </c>
@@ -3744,14 +3911,20 @@
         <v>0</v>
       </c>
       <c r="FY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" t="n">
         <v>149</v>
       </c>
-      <c r="FZ4" t="n">
+      <c r="GA4" t="n">
         <v>310</v>
       </c>
-      <c r="GA4" t="inlineStr"/>
-      <c r="GB4" t="inlineStr"/>
-      <c r="GC4" t="inlineStr"/>
+      <c r="GB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
       <c r="GD4" t="n">
         <v>0</v>
       </c>
@@ -3762,14 +3935,14 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH4" t="n">
         <v>1</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GI4" t="n">
         <v>22</v>
       </c>
-      <c r="GI4" t="n">
-        <v>0</v>
-      </c>
       <c r="GJ4" t="n">
         <v>0</v>
       </c>
@@ -3792,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="GQ4" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="GR4" t="n">
         <v>121</v>
       </c>
       <c r="GS4" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="GT4" t="n">
         <v>0</v>
@@ -3810,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="GW4" t="n">
-        <v>1604</v>
+        <v>0</v>
       </c>
       <c r="GX4" t="n">
         <v>1604</v>
       </c>
       <c r="GY4" t="n">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="GZ4" t="n">
         <v>0</v>
@@ -3828,14 +4001,20 @@
         <v>0</v>
       </c>
       <c r="HC4" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="HD4" t="n">
         <v>177</v>
       </c>
-      <c r="HE4" t="inlineStr"/>
-      <c r="HF4" t="inlineStr"/>
-      <c r="HG4" t="inlineStr"/>
+      <c r="HE4" t="n">
+        <v>177</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
       <c r="HH4" t="n">
         <v>0</v>
       </c>
@@ -3849,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="HL4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="HM4" t="n">
         <v>28</v>
       </c>
       <c r="HN4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="HO4" t="n">
         <v>0</v>
@@ -3891,17 +4070,17 @@
         <v>0</v>
       </c>
       <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA4" t="n">
         <v>121</v>
       </c>
-      <c r="IA4" t="n">
-        <v>0</v>
-      </c>
       <c r="IB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC4" t="n">
         <v>121</v>
       </c>
-      <c r="IC4" t="n">
-        <v>0</v>
-      </c>
       <c r="ID4" t="n">
         <v>0</v>
       </c>
@@ -3909,17 +4088,23 @@
         <v>0</v>
       </c>
       <c r="IF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG4" t="n">
         <v>607</v>
       </c>
-      <c r="IG4" t="n">
-        <v>0</v>
-      </c>
       <c r="IH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" t="n">
         <v>607</v>
       </c>
-      <c r="II4" t="inlineStr"/>
-      <c r="IJ4" t="inlineStr"/>
-      <c r="IK4" t="inlineStr"/>
+      <c r="IJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
       <c r="IL4" t="n">
         <v>0</v>
       </c>
@@ -3963,17 +4148,17 @@
         <v>0</v>
       </c>
       <c r="IZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" t="n">
         <v>3</v>
       </c>
-      <c r="JA4" t="n">
-        <v>0</v>
-      </c>
       <c r="JB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC4" t="n">
         <v>2</v>
       </c>
-      <c r="JC4" t="n">
-        <v>0</v>
-      </c>
       <c r="JD4" t="n">
         <v>0</v>
       </c>
@@ -3981,15 +4166,18 @@
         <v>0</v>
       </c>
       <c r="JF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" t="n">
         <v>3</v>
       </c>
-      <c r="JG4" t="n">
-        <v>0</v>
-      </c>
       <c r="JH4" t="n">
         <v>0</v>
       </c>
-      <c r="JI4" t="inlineStr"/>
+      <c r="JI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
